--- a/[C] Thesis Design/GANTT Thesis Planning.xlsx
+++ b/[C] Thesis Design/GANTT Thesis Planning.xlsx
@@ -3359,7 +3359,7 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6F32F13F-CC66-471E-8318-541B8A3AF477}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C94EDF5F-17E2-4EA3-860B-256EF2BB3459}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
